--- a/Calculations and Asms/calculation_w3.xlsx
+++ b/Calculations and Asms/calculation_w3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLEX5-82HU000BSB\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLEX5-82HU000BSB\Desktop\Decision-Support-and-Recommender-System\Calculations and Asms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD8C60D-54E3-4A58-B381-E677C27DE785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F73588-2846-4AB3-BCA7-416C372ED12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C4DDC429-32FB-455F-9C23-01A6089A4625}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" activeTab="1" xr2:uid="{C4DDC429-32FB-455F-9C23-01A6089A4625}"/>
   </bookViews>
   <sheets>
     <sheet name="TFIDF" sheetId="1" r:id="rId1"/>
@@ -1090,23 +1090,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C963C41-BF8C-45F0-95BF-1631206F9178}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:I24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="23" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1299,12 +1299,12 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0.47393364928909953</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>0.80213903743315507</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>0.51948051948051943</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1481,15 +1481,15 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="31" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -1561,12 +1561,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1632,16 +1632,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="51">
-        <f t="shared" ref="B22:I22" si="6">B11*B$17</f>
+        <f>B11*B$17</f>
         <v>0</v>
       </c>
       <c r="C22" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C22:I22" si="6">C11*C$17</f>
         <v>0</v>
       </c>
       <c r="D22" s="51">
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>14</v>
       </c>
@@ -1753,19 +1753,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D28EED8-A769-4566-AA7B-BF2EF12A265D}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="2" max="9" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" customWidth="1"/>
+    <col min="14" max="16" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -1778,7 +1783,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1810,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="23" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -1852,7 +1857,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
@@ -1894,7 +1899,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>24</v>
       </c>
@@ -1927,7 +1932,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="18" t="s">
         <v>25</v>
       </c>
@@ -1960,7 +1965,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1971,7 +1976,7 @@
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>15</v>
@@ -1984,7 +1989,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
@@ -2013,16 +2018,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="23">
-        <f t="shared" ref="B10:D13" si="1">B3/$J3</f>
+        <f>B3/$J3</f>
         <v>0.23696682464454977</v>
       </c>
       <c r="C10" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B10:D13" si="1">C3/$J3</f>
         <v>0.14218009478672985</v>
       </c>
       <c r="D10" s="23">
@@ -2050,7 +2055,7 @@
         <v>0.47393364928909953</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="22" t="s">
         <v>23</v>
       </c>
@@ -2087,7 +2092,7 @@
         <v>0.80213903743315507</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>24</v>
       </c>
@@ -2124,7 +2129,7 @@
         <v>0.51948051948051943</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -2172,7 +2177,7 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
         <v>16</v>
@@ -2185,7 +2190,7 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="21" t="s">
         <v>2</v>
@@ -2219,7 +2224,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
         <v>16</v>
       </c>
@@ -2265,7 +2270,7 @@
       </c>
       <c r="O17" s="25"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2276,7 +2281,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
         <v>20</v>
@@ -2292,7 +2297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="24" t="s">
         <v>21</v>
       </c>
@@ -2348,7 +2353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>22</v>
       </c>
@@ -2394,16 +2399,16 @@
       <c r="R21" s="31"/>
       <c r="S21" s="32"/>
     </row>
-    <row r="22" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="23">
-        <f t="shared" ref="B22:I24" si="6">B11*B$17</f>
+        <f>B11*B$17</f>
         <v>0</v>
       </c>
       <c r="C22" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B22:I24" si="6">C11*C$17</f>
         <v>0</v>
       </c>
       <c r="D22" s="23">
@@ -2440,7 +2445,7 @@
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
     </row>
-    <row r="23" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="22" t="s">
         <v>24</v>
       </c>
@@ -2484,15 +2489,15 @@
         <v>0</v>
       </c>
       <c r="M23" s="30">
-        <f t="shared" ref="M23:S24" si="7">C23*C$30</f>
+        <f>C23*C$30</f>
         <v>0</v>
       </c>
       <c r="N23" s="30">
-        <f t="shared" si="7"/>
+        <f>D23*D$30</f>
         <v>3.9193778463600582E-4</v>
       </c>
       <c r="O23" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="M23:S24" si="7">E23*E$30</f>
         <v>0</v>
       </c>
       <c r="P23" s="30">
@@ -2512,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="22" t="s">
         <v>25</v>
       </c>
@@ -2584,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="27" t="s">
         <v>28</v>
       </c>
@@ -2592,7 +2597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>2</v>
@@ -2623,7 +2628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>30</v>
       </c>
@@ -2654,7 +2659,7 @@
       <c r="K28" s="40"/>
       <c r="L28" s="44"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>31</v>
       </c>
@@ -2663,11 +2668,11 @@
         <v>0.12562814070351758</v>
       </c>
       <c r="C29" s="7">
-        <f t="shared" ref="C29:I29" si="9">C28/SUM($B$28:$I$28)</f>
+        <f>C28/SUM($B$28:$I$28)</f>
         <v>7.5376884422110546E-2</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D29:I29" si="9">D28/SUM($B$28:$I$28)</f>
         <v>7.537688442211055E-3</v>
       </c>
       <c r="E29" s="7">
@@ -2693,7 +2698,7 @@
       <c r="K29" s="42"/>
       <c r="L29" s="43"/>
     </row>
-    <row r="30" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="14" t="s">
         <v>32</v>
       </c>
@@ -2702,7 +2707,7 @@
         <v>0.17415758305526263</v>
       </c>
       <c r="C30" s="14">
-        <f t="shared" ref="B30:I30" si="10">C29*C17</f>
+        <f t="shared" ref="C30:I30" si="10">C29*C17</f>
         <v>0.10449454983315758</v>
       </c>
       <c r="D30" s="14">
@@ -2737,7 +2742,7 @@
         <v>4.6665292863786129E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
         <v>33</v>
       </c>
@@ -2749,7 +2754,7 @@
         <v>6.9314049254733409E-6</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="13" t="s">
         <v>34</v>
       </c>
@@ -2781,7 +2786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -2819,7 +2824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="42"/>
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
@@ -2839,7 +2844,7 @@
       <c r="R34" s="45"/>
       <c r="S34" s="41"/>
     </row>
-    <row r="35" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="39" t="s">
         <v>13</v>
       </c>
@@ -2885,7 +2890,7 @@
       <c r="R35" s="46"/>
       <c r="S35" s="43"/>
     </row>
-    <row r="36" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>14</v>
       </c>
@@ -2925,39 +2930,39 @@
         <v>13</v>
       </c>
       <c r="L36" s="30">
-        <f t="shared" ref="L36:L37" si="12">B23^2</f>
+        <f>B23^2</f>
         <v>0</v>
       </c>
       <c r="M36" s="30">
-        <f t="shared" ref="M36:S37" si="13">C23^2</f>
+        <f t="shared" ref="M36:S37" si="12">C23^2</f>
         <v>0</v>
       </c>
       <c r="N36" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.627389548525626E-3</v>
       </c>
       <c r="O36" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P36" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>8.1034409498768993E-3</v>
       </c>
       <c r="Q36" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.6916652386707293E-3</v>
       </c>
       <c r="R36" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.5509637152630514E-6</v>
       </c>
       <c r="S36" s="30">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>37</v>
       </c>
@@ -2965,39 +2970,39 @@
         <v>14</v>
       </c>
       <c r="L37" s="7">
+        <f t="shared" ref="L37" si="13">B24^2</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M37" s="7">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="N37" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.8045301391820136E-3</v>
       </c>
       <c r="Q37" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>9.195663867794633E-5</v>
       </c>
       <c r="R37" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S37" s="7">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A38" s="47"/>
       <c r="B38" s="48" t="s">
         <v>38</v>
@@ -3038,14 +3043,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="78" x14ac:dyDescent="0.35">
       <c r="A39" s="40"/>
       <c r="B39" s="41"/>
       <c r="K39" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
       <c r="K40" s="47"/>
@@ -3053,29 +3058,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="30">
-        <f t="shared" ref="B41:B42" si="15">SQRT(SUM(B35:I35))</f>
+        <f>SQRT(SUM(B35:I35))</f>
         <v>0.25121510781049994</v>
       </c>
       <c r="K41" s="40"/>
       <c r="L41" s="41"/>
     </row>
-    <row r="42" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B42" si="15">SQRT(SUM(B36:I36))</f>
         <v>0.22472408308131406</v>
       </c>
       <c r="K42" s="42"/>
       <c r="L42" s="43"/>
     </row>
-    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
         <v>42</v>
       </c>
@@ -3087,7 +3092,7 @@
         <v>0.1357352080367821</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A44" s="47"/>
       <c r="B44" s="48" t="s">
         <v>43</v>
@@ -3100,7 +3105,7 @@
         <v>6.9974901056449948E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="41"/>
       <c r="K45" s="8" t="s">
@@ -3111,19 +3116,19 @@
         <v>0.21358438507701896</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="42"/>
       <c r="B46" s="43"/>
       <c r="K46" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A47" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="30">
-        <f t="shared" ref="B47:B48" si="16">1/(1+B41)</f>
+        <f>1/(1+B41)</f>
         <v>0.7992230862284736</v>
       </c>
       <c r="K47" s="49" t="s">
@@ -3131,22 +3136,22 @@
       </c>
       <c r="L47" s="47"/>
     </row>
-    <row r="48" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B48" si="16">1/(1+B42)</f>
         <v>0.81651044003648154</v>
       </c>
       <c r="K48" s="40"/>
       <c r="L48" s="41"/>
     </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="K49" s="42"/>
       <c r="L49" s="43"/>
     </row>
-    <row r="50" spans="11:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K50" s="29" t="s">
         <v>13</v>
       </c>
@@ -3155,12 +3160,12 @@
         <v>1.6096519650896139E-2</v>
       </c>
     </row>
-    <row r="51" spans="11:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K51" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L51" s="7">
-        <f t="shared" ref="L50:L51" si="17">L31/(L44*$L$45)</f>
+      <c r="L51" s="50">
+        <f>L31/(L44*$L$45)</f>
         <v>4.6377729035152235E-4</v>
       </c>
     </row>
@@ -3170,6 +3175,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100898FC18CD4ACA04F882C14B1504C663B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a58bb5198616281d97217af8e1335993">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2d82093-965f-46ac-91e6-db5eb5ef783c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="968c59416546a23f3628d5f85aad07a5" ns2:_="">
     <xsd:import namespace="b2d82093-965f-46ac-91e6-db5eb5ef783c"/>
@@ -3313,16 +3327,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1846FBDA-4E57-43AE-8B51-0CF9EEF85135}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F1CE303-875C-45E8-89D6-6C613E55A4A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3338,12 +3351,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1846FBDA-4E57-43AE-8B51-0CF9EEF85135}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Calculations and Asms/calculation_w3.xlsx
+++ b/Calculations and Asms/calculation_w3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLEX5-82HU000BSB\Desktop\Decision-Support-and-Recommender-System\Calculations and Asms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLEX5-82HU000BSB\Desktop\1-2024\Decision-Support-and-Recommender-System\Calculations and Asms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F73588-2846-4AB3-BCA7-416C372ED12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC28D0A-8199-40D9-970C-131D3AE88E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" activeTab="1" xr2:uid="{C4DDC429-32FB-455F-9C23-01A6089A4625}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4DDC429-32FB-455F-9C23-01A6089A4625}"/>
   </bookViews>
   <sheets>
     <sheet name="TFIDF" sheetId="1" r:id="rId1"/>
@@ -1090,23 +1090,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C963C41-BF8C-45F0-95BF-1631206F9178}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="23" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1299,12 +1299,12 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0.47393364928909953</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>0.80213903743315507</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>0.51948051948051943</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1481,15 +1481,15 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -1561,12 +1561,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>14</v>
       </c>
@@ -1753,24 +1753,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D28EED8-A769-4566-AA7B-BF2EF12A265D}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView zoomScale="67" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" customWidth="1"/>
-    <col min="14" max="16" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -1783,7 +1783,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="23" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>24</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>25</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1976,7 +1976,7 @@
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>15</v>
@@ -1989,7 +1989,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>0.47393364928909953</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>23</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>0.80213903743315507</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>24</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0.51948051948051943</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -2177,7 +2177,7 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
         <v>16</v>
@@ -2190,7 +2190,7 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:21" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="21" t="s">
         <v>2</v>
@@ -2224,7 +2224,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
     </row>
-    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>16</v>
       </c>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="O17" s="25"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2281,7 +2281,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
         <v>20</v>
@@ -2297,7 +2297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>21</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>22</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="R21" s="31"/>
       <c r="S21" s="32"/>
     </row>
-    <row r="22" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>23</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
     </row>
-    <row r="23" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>24</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>25</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" ref="L24" si="8">B24*B$30</f>
+        <f>B24*B$30</f>
         <v>0</v>
       </c>
       <c r="M24" s="7">
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>28</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>2</v>
@@ -2628,7 +2628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>30</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="K28" s="40"/>
       <c r="L28" s="44"/>
     </row>
-    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>31</v>
       </c>
@@ -2672,33 +2672,33 @@
         <v>7.5376884422110546E-2</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" ref="D29:I29" si="9">D28/SUM($B$28:$I$28)</f>
+        <f t="shared" ref="D29:I29" si="8">D28/SUM($B$28:$I$28)</f>
         <v>7.537688442211055E-3</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.0452261306532666E-2</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.5125628140703518E-3</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7.0351758793969849E-2</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.62814070351758799</v>
       </c>
       <c r="K29" s="42"/>
       <c r="L29" s="43"/>
     </row>
-    <row r="30" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>32</v>
       </c>
@@ -2707,31 +2707,31 @@
         <v>0.17415758305526263</v>
       </c>
       <c r="C30" s="14">
-        <f t="shared" ref="C30:I30" si="10">C29*C17</f>
+        <f t="shared" ref="C30:I30" si="9">C29*C17</f>
         <v>0.10449454983315758</v>
       </c>
       <c r="D30" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.2247274916578787E-3</v>
       </c>
       <c r="E30" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6.2696729899894554E-2</v>
       </c>
       <c r="F30" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G30" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7.2281927751703732E-4</v>
       </c>
       <c r="H30" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0238939770477044E-2</v>
       </c>
       <c r="I30" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K30" s="39" t="s">
@@ -2742,7 +2742,7 @@
         <v>4.6665292863786129E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>33</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>6.9314049254733409E-6</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>34</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -2824,7 +2824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
@@ -2844,7 +2844,7 @@
       <c r="R34" s="45"/>
       <c r="S34" s="41"/>
     </row>
-    <row r="35" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
         <v>13</v>
       </c>
@@ -2857,27 +2857,27 @@
         <v>1.0919110944834252E-2</v>
       </c>
       <c r="D35" s="30">
-        <f t="shared" ref="B35:I36" si="11">(D$30-D23)^2</f>
+        <f t="shared" ref="B35:I36" si="10">(D$30-D23)^2</f>
         <v>4.8708117566156998E-3</v>
       </c>
       <c r="E35" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.9308799401403319E-3</v>
       </c>
       <c r="F35" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8.1034409498768993E-3</v>
       </c>
       <c r="G35" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.5931676360147751E-3</v>
       </c>
       <c r="H35" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.6075542910845432E-4</v>
       </c>
       <c r="I35" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K35" s="42"/>
@@ -2890,119 +2890,119 @@
       <c r="R35" s="46"/>
       <c r="S35" s="43"/>
     </row>
-    <row r="36" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="7">
+        <f t="shared" si="10"/>
+        <v>3.0330863735650703E-2</v>
+      </c>
+      <c r="C36" s="7">
+        <f t="shared" si="10"/>
+        <v>1.0919110944834252E-2</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="10"/>
+        <v>2.7297777362085628E-5</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="10"/>
+        <v>3.9308799401403319E-3</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="10"/>
+        <v>4.8045301391820136E-3</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="10"/>
+        <v>7.8616296534949909E-5</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="10"/>
+        <v>4.0961468303299739E-4</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="30">
+        <f>B23^2</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="30">
+        <f t="shared" ref="M36:S37" si="11">C23^2</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="30">
         <f t="shared" si="11"/>
-        <v>3.0330863735650703E-2</v>
-      </c>
-      <c r="C36" s="7">
+        <v>5.627389548525626E-3</v>
+      </c>
+      <c r="O36" s="30">
         <f t="shared" si="11"/>
-        <v>1.0919110944834252E-2</v>
-      </c>
-      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="30">
         <f t="shared" si="11"/>
-        <v>2.7297777362085628E-5</v>
-      </c>
-      <c r="E36" s="7">
+        <v>8.1034409498768993E-3</v>
+      </c>
+      <c r="Q36" s="30">
         <f t="shared" si="11"/>
-        <v>3.9308799401403319E-3</v>
-      </c>
-      <c r="F36" s="7">
+        <v>4.6916652386707293E-3</v>
+      </c>
+      <c r="R36" s="30">
+        <f t="shared" si="11"/>
+        <v>1.5509637152630514E-6</v>
+      </c>
+      <c r="S36" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" ref="L37" si="12">B24^2</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
         <f t="shared" si="11"/>
         <v>4.8045301391820136E-3</v>
       </c>
-      <c r="G36" s="7">
+      <c r="Q37" s="7">
         <f t="shared" si="11"/>
-        <v>7.8616296534949909E-5</v>
-      </c>
-      <c r="H36" s="7">
+        <v>9.195663867794633E-5</v>
+      </c>
+      <c r="R37" s="7">
         <f t="shared" si="11"/>
-        <v>4.0961468303299739E-4</v>
-      </c>
-      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="S37" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K36" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="30">
-        <f>B23^2</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="30">
-        <f t="shared" ref="M36:S37" si="12">C23^2</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="30">
-        <f t="shared" si="12"/>
-        <v>5.627389548525626E-3</v>
-      </c>
-      <c r="O36" s="30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="30">
-        <f t="shared" si="12"/>
-        <v>8.1034409498768993E-3</v>
-      </c>
-      <c r="Q36" s="30">
-        <f t="shared" si="12"/>
-        <v>4.6916652386707293E-3</v>
-      </c>
-      <c r="R36" s="30">
-        <f t="shared" si="12"/>
-        <v>1.5509637152630514E-6</v>
-      </c>
-      <c r="S36" s="30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="7">
-        <f t="shared" ref="L37" si="13">B24^2</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="7">
-        <f t="shared" si="12"/>
-        <v>4.8045301391820136E-3</v>
-      </c>
-      <c r="Q37" s="7">
-        <f t="shared" si="12"/>
-        <v>9.195663867794633E-5</v>
-      </c>
-      <c r="R37" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="47"/>
       <c r="B38" s="48" t="s">
         <v>38</v>
@@ -3015,42 +3015,42 @@
         <v>3.0330863735650703E-2</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" ref="M38:S38" si="14">C30^2</f>
+        <f t="shared" ref="M38:S38" si="13">C30^2</f>
         <v>1.0919110944834252E-2</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2.7297777362085628E-5</v>
       </c>
       <c r="O38" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.9308799401403319E-3</v>
       </c>
       <c r="P38" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q38" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.2246770795025179E-7</v>
       </c>
       <c r="R38" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4.0961468303299739E-4</v>
       </c>
       <c r="S38" s="7">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="78" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="41"/>
       <c r="K39" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
       <c r="K40" s="47"/>
@@ -3058,7 +3058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>13</v>
       </c>
@@ -3069,18 +3069,18 @@
       <c r="K41" s="40"/>
       <c r="L41" s="41"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="7">
-        <f t="shared" ref="B42" si="15">SQRT(SUM(B36:I36))</f>
+        <f t="shared" ref="B42" si="14">SQRT(SUM(B36:I36))</f>
         <v>0.22472408308131406</v>
       </c>
       <c r="K42" s="42"/>
       <c r="L42" s="43"/>
     </row>
-    <row r="43" spans="1:19" ht="31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>42</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>0.1357352080367821</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="48" t="s">
         <v>43</v>
@@ -3105,7 +3105,7 @@
         <v>6.9974901056449948E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="41"/>
       <c r="K45" s="8" t="s">
@@ -3116,14 +3116,14 @@
         <v>0.21358438507701896</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
       <c r="B46" s="43"/>
       <c r="K46" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>13</v>
       </c>
@@ -3136,22 +3136,22 @@
       </c>
       <c r="L47" s="47"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="7">
-        <f t="shared" ref="B48" si="16">1/(1+B42)</f>
+        <f t="shared" ref="B48" si="15">1/(1+B42)</f>
         <v>0.81651044003648154</v>
       </c>
       <c r="K48" s="40"/>
       <c r="L48" s="41"/>
     </row>
-    <row r="49" spans="11:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K49" s="42"/>
       <c r="L49" s="43"/>
     </row>
-    <row r="50" spans="11:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="11:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="K50" s="29" t="s">
         <v>13</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>1.6096519650896139E-2</v>
       </c>
     </row>
-    <row r="51" spans="11:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="11:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="K51" s="8" t="s">
         <v>14</v>
       </c>
